--- a/pabi_async_process/pabi_action_asset_compute/xlsx_template/asset_compute_test_log.xlsx
+++ b/pabi_async_process/pabi_action_asset_compute/xlsx_template/asset_compute_test_log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Asset Code</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing Budget Code</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -153,7 +156,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="92.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="4" style="0" width="19.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
@@ -168,6 +171,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_async_process/pabi_action_asset_compute/xlsx_template/asset_compute_test_log.xlsx
+++ b/pabi_async_process/pabi_action_asset_compute/xlsx_template/asset_compute_test_log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Asset Code</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Existing Budget Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM’s Section</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +86,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,12 +129,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,6 +151,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -146,7 +219,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -156,7 +229,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="4" style="0" width="19.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
@@ -173,6 +246,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
